--- a/BalanceUs - Erros.xlsx
+++ b/BalanceUs - Erros.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="67">
   <si>
     <t>Afrafep</t>
   </si>
@@ -42,7 +42,7 @@
     <t>admilde de oliveira cabral</t>
   </si>
   <si>
-    <t>Abdomen Total Com Doppler</t>
+    <t>Doppler</t>
   </si>
   <si>
     <t>Órgãos superficiais</t>
@@ -78,16 +78,19 @@
     <t>2020-07-07</t>
   </si>
   <si>
+    <t>dagoberto lourenco ribeiro</t>
+  </si>
+  <si>
+    <t>Próstata</t>
+  </si>
+  <si>
     <t>germana borges virgolino da silva durao</t>
   </si>
   <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>celio gomes da silva almeida</t>
-  </si>
-  <si>
-    <t>Órgãos superficiais Com Doppler</t>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>maria dulce barros paz bezerra</t>
   </si>
   <si>
     <t>2020-07-22</t>
@@ -99,12 +102,6 @@
     <t>Abdomen Total</t>
   </si>
   <si>
-    <t>2020-07-29</t>
-  </si>
-  <si>
-    <t>maria do socorro farias de queiroz</t>
-  </si>
-  <si>
     <t>Embrapa</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Filme</t>
   </si>
   <si>
-    <t>2020-07-17</t>
-  </si>
-  <si>
     <t>andresa belo de assis pereira</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
   </si>
   <si>
     <t>heraldo limeira aires junior</t>
-  </si>
-  <si>
-    <t>Próstata</t>
   </si>
   <si>
     <t>2020-07-08</t>
@@ -291,7 +282,7 @@
   <cols>
     <col min="1" max="1" width="11.54296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.45703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.09375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.5703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.26171875" customWidth="true" bestFit="true"/>
   </cols>
@@ -494,7 +485,7 @@
   <cols>
     <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.72265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.5703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.26171875" customWidth="true" bestFit="true"/>
   </cols>
@@ -529,10 +520,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>107.69</v>
+        <v>123.44</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -543,13 +534,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>84.96</v>
+        <v>107.69</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -560,13 +551,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>119.61</v>
+        <v>84.96</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -574,16 +565,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>245.74</v>
+        <v>119.61</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -591,16 +582,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>180.74</v>
+        <v>96.57</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -608,16 +599,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>84.96</v>
+        <v>180.74</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -625,16 +616,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>106.63</v>
+        <v>84.96</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -642,16 +633,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>245.74</v>
+        <v>106.63</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -659,13 +650,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>245.74</v>
@@ -696,7 +687,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -731,14 +722,14 @@
   <cols>
     <col min="1" max="1" width="12.05859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.5703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.26171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -760,61 +751,61 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
         <v>4.12</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>8.25</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>105.61</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -823,134 +814,134 @@
         <v>68.5</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>4.12</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>16.49</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>113.15</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
       </c>
       <c r="D10" t="n">
         <v>50.34</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>4.12</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
         <v>16.49</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>113.15</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -959,49 +950,49 @@
         <v>68.5</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
         <v>4.12</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
         <v>4.12</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -1010,15 +1001,15 @@
         <v>60.49</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1027,49 +1018,49 @@
         <v>60.49</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>4.12</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>4.12</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1078,15 +1069,15 @@
         <v>60.49</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1095,32 +1086,32 @@
         <v>60.49</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>4.12</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1129,168 +1120,168 @@
         <v>68.5</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>16.49</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>113.15</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
         <v>4.12</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D28" t="n">
         <v>50.4</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D29" t="n">
         <v>2.7</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D30" t="n">
         <v>3.08</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D31" t="n">
         <v>3.36</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
         <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
       </c>
       <c r="D32" t="n">
         <v>1.59</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
         <v>4.12</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1299,219 +1290,219 @@
         <v>60.49</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
         <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
       </c>
       <c r="D35" t="n">
         <v>67.85</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
         <v>16.49</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
         <v>4.12</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D38" t="n">
         <v>50.4</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
         <v>113.15</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" t="n">
         <v>4.12</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
         <v>16.49</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
         <v>113.15</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
         <v>50.4</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>4.12</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
         <v>4.12</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
         <v>16.49</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
@@ -1520,15 +1511,15 @@
         <v>60.49</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -1537,49 +1528,49 @@
         <v>60.49</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49" t="n">
         <v>113.15</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
         <v>4.12</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -1588,83 +1579,83 @@
         <v>68.5</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
         <v>16.49</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
         <v>113.15</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
         <v>4.12</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
         <v>4.12</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -1673,15 +1664,15 @@
         <v>60.49</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -1690,32 +1681,32 @@
         <v>60.49</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
         <v>4.12</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -1724,49 +1715,49 @@
         <v>68.5</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" t="n">
         <v>4.12</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
         <v>4.12</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -1775,15 +1766,15 @@
         <v>60.49</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -1792,83 +1783,83 @@
         <v>60.49</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
         <v>16.49</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" t="n">
         <v>113.15</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" t="n">
         <v>4.12</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
         <v>4.12</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
@@ -1877,15 +1868,15 @@
         <v>60.49</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -1894,49 +1885,49 @@
         <v>60.49</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
         <v>4.12</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
         <v>16.49</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -1945,83 +1936,83 @@
         <v>68.5</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" t="n">
         <v>113.15</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74" t="n">
         <v>8.25</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D75" t="n">
         <v>105.61</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
         <v>4.12</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -2030,32 +2021,32 @@
         <v>60.49</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" t="n">
         <v>4.12</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -2064,32 +2055,32 @@
         <v>60.49</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80" t="n">
         <v>4.12</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -2098,134 +2089,134 @@
         <v>60.49</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D82" t="n">
         <v>5.4</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D83" t="n">
         <v>6.16</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D84" t="n">
         <v>6.72</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D85" t="n">
         <v>1.59</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
         <v>319.24</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" t="n">
         <v>4.12</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D88" t="n">
         <v>4.12</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -2234,15 +2225,15 @@
         <v>60.49</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
@@ -2251,66 +2242,66 @@
         <v>60.49</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" t="n">
         <v>4.12</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D92" t="n">
         <v>4.12</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93" t="n">
         <v>4.12</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B94" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
         <v>15</v>
@@ -2319,15 +2310,15 @@
         <v>60.49</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B95" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -2336,15 +2327,15 @@
         <v>60.49</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
@@ -2353,49 +2344,49 @@
         <v>68.5</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" t="n">
         <v>4.12</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" t="n">
         <v>4.12</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -2404,15 +2395,15 @@
         <v>60.49</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C100" t="s">
         <v>15</v>
@@ -2421,134 +2412,134 @@
         <v>60.49</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D101" t="n">
         <v>2.7</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D102" t="n">
         <v>3.08</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D103" t="n">
         <v>3.36</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D104" t="n">
         <v>1.59</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D105" t="n">
         <v>67.85</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D106" t="n">
         <v>4.12</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D107" t="n">
         <v>4.12</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
@@ -2557,15 +2548,15 @@
         <v>60.49</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -2574,100 +2565,100 @@
         <v>60.49</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D110" t="n">
         <v>16.49</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D111" t="n">
         <v>113.15</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D112" t="n">
         <v>4.12</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D113" t="n">
         <v>4.12</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D114" t="n">
         <v>4.12</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
@@ -2676,15 +2667,15 @@
         <v>60.49</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -2693,15 +2684,15 @@
         <v>60.49</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -2710,7 +2701,7 @@
         <v>68.5</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/BalanceUs - Erros.xlsx
+++ b/BalanceUs - Erros.xlsx
@@ -11,12 +11,13 @@
     <sheet name="BalanceUS - Erros - Cassi" r:id="rId5" sheetId="3"/>
     <sheet name="BalanceUS - Erros - Embrapa" r:id="rId6" sheetId="4"/>
     <sheet name="BalanceUS - Erros - Unimed" r:id="rId7" sheetId="5"/>
+    <sheet name="BalanceUS - Erros - Unimed PF" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="68">
   <si>
     <t>Afrafep</t>
   </si>
@@ -36,6 +37,12 @@
     <t>Convênio</t>
   </si>
   <si>
+    <t>Médica</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
     <t>2020-02-06</t>
   </si>
   <si>
@@ -108,69 +115,54 @@
     <t>Unimed</t>
   </si>
   <si>
+    <t>andresa belo de assis pereira</t>
+  </si>
+  <si>
+    <t>Filme</t>
+  </si>
+  <si>
+    <t>Ginecológico</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>ericka polowa reinaldo nobrega</t>
+  </si>
+  <si>
     <t>2020-07-21</t>
   </si>
   <si>
-    <t>ana augusta muniz de brito lira</t>
-  </si>
-  <si>
-    <t>Filme</t>
-  </si>
-  <si>
-    <t>andresa belo de assis pereira</t>
-  </si>
-  <si>
-    <t>Ginecológico</t>
+    <t>heraldo limeira aires junior</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>irely sirlene barbosa pereira</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Medicamento</t>
+  </si>
+  <si>
+    <t>PAAF Mama</t>
+  </si>
+  <si>
+    <t>jaime cicero do carmo fh</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>maria acyclea pinto de souza carvalho</t>
   </si>
   <si>
     <t>2020-07-10</t>
   </si>
   <si>
-    <t>danielle franklin de carvalho</t>
-  </si>
-  <si>
-    <t>2020-07-14</t>
-  </si>
-  <si>
-    <t>ericka polowa reinaldo nobrega</t>
-  </si>
-  <si>
-    <t>gabrielle diniz de franca costa</t>
-  </si>
-  <si>
-    <t>heraldo limeira aires junior</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>irely sirlene barbosa pereira</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Medicamento</t>
-  </si>
-  <si>
-    <t>PAAF Mama</t>
-  </si>
-  <si>
-    <t>jaime cicero do carmo fh</t>
-  </si>
-  <si>
-    <t>juaci lourenco da silva</t>
-  </si>
-  <si>
-    <t>lorenna raysse de macedo barbosa</t>
-  </si>
-  <si>
-    <t>2020-07-24</t>
-  </si>
-  <si>
-    <t>maria acyclea pinto de souza carvalho</t>
-  </si>
-  <si>
     <t>maria das gracas licariao santos</t>
   </si>
   <si>
@@ -183,21 +175,15 @@
     <t>maria goretti mesquita cavalcanti</t>
   </si>
   <si>
-    <t>maria santana dos santos ribeiro</t>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>marina queiroz cacimiro</t>
   </si>
   <si>
     <t>2020-07-15</t>
   </si>
   <si>
-    <t>2020-07-16</t>
-  </si>
-  <si>
-    <t>2020-06-29</t>
-  </si>
-  <si>
-    <t>marina queiroz cacimiro</t>
-  </si>
-  <si>
     <t>marta lilia cavalcanti aragao</t>
   </si>
   <si>
@@ -210,13 +196,31 @@
     <t>priscilla gregorio da silva</t>
   </si>
   <si>
-    <t>rosa maria da silva pereira</t>
-  </si>
-  <si>
     <t>rosane araujo de arruda</t>
   </si>
   <si>
     <t>solania maria dos santos medeiros</t>
+  </si>
+  <si>
+    <t>Unimed PF</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>mary kennedya macedo brasil</t>
+  </si>
+  <si>
+    <t>miguel jakson alves cantalice</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>otacilio b almeida fh</t>
   </si>
 </sst>
 </file>
@@ -274,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -285,6 +289,8 @@
     <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.5703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.20703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -308,16 +314,22 @@
       <c r="E2" t="s" s="2">
         <v>5</v>
       </c>
+      <c r="F2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>197.39</v>
@@ -328,13 +340,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>84.5</v>
@@ -345,13 +357,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>197.39</v>
@@ -362,13 +374,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>95.0</v>
@@ -379,13 +391,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>107.03</v>
@@ -396,13 +408,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>84.5</v>
@@ -413,13 +425,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>119.4</v>
@@ -435,7 +447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,11 +458,13 @@
     <col min="3" max="3" width="17.7734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.5703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.20703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -468,6 +482,12 @@
       </c>
       <c r="E2" t="s" s="2">
         <v>5</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -477,7 +497,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,11 +508,13 @@
     <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.5703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.20703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -511,158 +533,164 @@
       <c r="E2" t="s" s="2">
         <v>5</v>
       </c>
+      <c r="F2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
         <v>123.44</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>107.69</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>84.96</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
         <v>119.61</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
         <v>96.57</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>180.74</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>84.96</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
         <v>106.63</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
         <v>245.74</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +700,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -683,11 +711,13 @@
     <col min="3" max="3" width="17.7734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.5703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.20703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -705,6 +735,12 @@
       </c>
       <c r="E2" t="s" s="2">
         <v>5</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +750,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -725,11 +761,13 @@
     <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.5703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.20703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -748,634 +786,640 @@
       <c r="E2" t="s" s="2">
         <v>5</v>
       </c>
+      <c r="F2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>4.12</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>8.25</v>
+        <v>16.49</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>105.61</v>
+        <v>113.15</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>68.5</v>
+        <v>50.34</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>4.12</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>16.49</v>
+        <v>4.12</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>113.15</v>
+        <v>60.49</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>50.34</v>
+        <v>60.49</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>4.12</v>
+        <v>16.49</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>16.49</v>
+        <v>113.15</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>113.15</v>
+        <v>4.12</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>68.5</v>
+        <v>50.4</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D15" t="n">
-        <v>4.12</v>
+        <v>2.7</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>4.12</v>
+        <v>3.08</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>60.49</v>
+        <v>3.36</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D18" t="n">
-        <v>60.49</v>
+        <v>1.59</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
         <v>4.12</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>4.12</v>
+        <v>60.49</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D21" t="n">
-        <v>60.49</v>
+        <v>67.85</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
-        <v>60.49</v>
+        <v>16.49</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>4.12</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>68.5</v>
+        <v>50.4</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>16.49</v>
+        <v>113.15</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
-        <v>113.15</v>
+        <v>4.12</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D27" t="n">
-        <v>4.12</v>
+        <v>68.5</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>50.4</v>
+        <v>16.49</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
-        <v>2.7</v>
+        <v>113.15</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
-        <v>3.08</v>
+        <v>4.12</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
-        <v>3.36</v>
+        <v>4.12</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>1.59</v>
+        <v>60.49</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
-        <v>4.12</v>
+        <v>60.49</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>60.49</v>
+        <v>4.12</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D35" t="n">
-        <v>67.85</v>
+        <v>68.5</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
-        <v>16.49</v>
+        <v>4.12</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
         <v>4.12</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
-        <v>50.4</v>
+        <v>60.49</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>113.15</v>
+        <v>60.49</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -1383,16 +1427,16 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>4.12</v>
+        <v>16.49</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -1400,288 +1444,288 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
-        <v>16.49</v>
+        <v>113.15</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>113.15</v>
+        <v>4.12</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>50.4</v>
+        <v>60.49</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
         <v>4.12</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
-        <v>4.12</v>
+        <v>60.49</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>16.49</v>
+        <v>5.4</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D47" t="n">
-        <v>60.49</v>
+        <v>6.16</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D48" t="n">
-        <v>60.49</v>
+        <v>6.72</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>113.15</v>
+        <v>1.59</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D50" t="n">
-        <v>4.12</v>
+        <v>319.24</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D51" t="n">
-        <v>68.5</v>
+        <v>4.12</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
-        <v>16.49</v>
+        <v>4.12</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>113.15</v>
+        <v>60.49</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>4.12</v>
+        <v>60.49</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
         <v>4.12</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>60.49</v>
+        <v>4.12</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
-        <v>60.49</v>
+        <v>4.12</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -1689,16 +1733,16 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>4.12</v>
+        <v>60.49</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -1706,101 +1750,101 @@
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>68.5</v>
+        <v>60.49</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D60" t="n">
-        <v>4.12</v>
+        <v>68.5</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" t="n">
         <v>4.12</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D62" t="n">
-        <v>60.49</v>
+        <v>4.12</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
         <v>60.49</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D64" t="n">
-        <v>16.49</v>
+        <v>60.49</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -1808,16 +1852,16 @@
         <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D65" t="n">
-        <v>113.15</v>
+        <v>16.49</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -1825,16 +1869,16 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
-        <v>4.12</v>
+        <v>113.15</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -1842,16 +1886,16 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" t="n">
         <v>4.12</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -1859,16 +1903,16 @@
         <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
-        <v>60.49</v>
+        <v>4.12</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -1876,16 +1920,16 @@
         <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D69" t="n">
-        <v>60.49</v>
+        <v>4.12</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -1893,16 +1937,16 @@
         <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>4.12</v>
+        <v>60.49</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
@@ -1910,16 +1954,16 @@
         <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D71" t="n">
-        <v>16.49</v>
+        <v>60.49</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -1927,781 +1971,372 @@
         <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D72" t="n">
         <v>68.5</v>
       </c>
       <c r="E72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.5703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.20703125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="D5" t="n">
+        <v>126.88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56.45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="n">
+        <v>76.81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="n">
+        <v>126.88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="n">
         <v>113.15</v>
       </c>
-      <c r="E73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="E74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" t="n">
-        <v>105.61</v>
-      </c>
-      <c r="E75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>57</v>
-      </c>
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
+      <c r="E20" t="s">
         <v>61</v>
-      </c>
-      <c r="B81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E81" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="E84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>61</v>
-      </c>
-      <c r="B85" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" t="s">
-        <v>44</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="E85" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" t="s">
-        <v>45</v>
-      </c>
-      <c r="D86" t="n">
-        <v>319.24</v>
-      </c>
-      <c r="E86" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E87" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" t="s">
-        <v>32</v>
-      </c>
-      <c r="D88" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E88" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E89" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E90" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C91" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E91" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" t="s">
-        <v>32</v>
-      </c>
-      <c r="D92" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E92" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E93" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E95" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" t="s">
-        <v>64</v>
-      </c>
-      <c r="C97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E97" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" t="s">
-        <v>32</v>
-      </c>
-      <c r="D98" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E98" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E99" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100" t="s">
-        <v>64</v>
-      </c>
-      <c r="C100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E100" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E101" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" t="s">
-        <v>43</v>
-      </c>
-      <c r="D102" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="E102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>25</v>
-      </c>
-      <c r="B103" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="E103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" t="s">
-        <v>44</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="E104" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" t="s">
-        <v>45</v>
-      </c>
-      <c r="D105" t="n">
-        <v>67.85</v>
-      </c>
-      <c r="E105" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106" t="s">
-        <v>32</v>
-      </c>
-      <c r="D106" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E106" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>35</v>
-      </c>
-      <c r="B107" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" t="s">
-        <v>32</v>
-      </c>
-      <c r="D107" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108" t="s">
-        <v>65</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E108" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>35</v>
-      </c>
-      <c r="B109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>30</v>
-      </c>
-      <c r="B110" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" t="s">
-        <v>32</v>
-      </c>
-      <c r="D110" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>30</v>
-      </c>
-      <c r="B111" t="s">
-        <v>66</v>
-      </c>
-      <c r="C111" t="s">
-        <v>27</v>
-      </c>
-      <c r="D111" t="n">
-        <v>113.15</v>
-      </c>
-      <c r="E111" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>30</v>
-      </c>
-      <c r="B112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" t="s">
-        <v>32</v>
-      </c>
-      <c r="D112" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E112" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>30</v>
-      </c>
-      <c r="B113" t="s">
-        <v>66</v>
-      </c>
-      <c r="C113" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E113" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>30</v>
-      </c>
-      <c r="B114" t="s">
-        <v>66</v>
-      </c>
-      <c r="C114" t="s">
-        <v>32</v>
-      </c>
-      <c r="D114" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E114" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>30</v>
-      </c>
-      <c r="B115" t="s">
-        <v>66</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E115" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>30</v>
-      </c>
-      <c r="B116" t="s">
-        <v>66</v>
-      </c>
-      <c r="C116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="E116" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>30</v>
-      </c>
-      <c r="B117" t="s">
-        <v>66</v>
-      </c>
-      <c r="C117" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E117" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
